--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3053.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3053.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2200927640813537</v>
+        <v>1.312883734703064</v>
       </c>
       <c r="B1">
-        <v>0.4276557805421398</v>
+        <v>4.11850118637085</v>
       </c>
       <c r="C1">
-        <v>2.79377987172153</v>
+        <v>6.002137184143066</v>
       </c>
       <c r="D1">
-        <v>4.538684850295845</v>
+        <v>1.481329202651978</v>
       </c>
       <c r="E1">
-        <v>3.555123099254997</v>
+        <v>0.8344982266426086</v>
       </c>
     </row>
   </sheetData>
